--- a/public/assets/data/productSample.xlsx
+++ b/public/assets/data/productSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ABIRAMI" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="1139">
   <si>
     <t>SKU</t>
   </si>
@@ -2162,9 +2162,6 @@
   </si>
   <si>
     <t>End Date</t>
-  </si>
-  <si>
-    <t>Video Shopping</t>
   </si>
   <si>
     <t>Featured</t>
@@ -3262,9 +3259,6 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Video Shopping</t>
-  </si>
-  <si>
     <t>Featured</t>
   </si>
   <si>
@@ -3305,9 +3299,6 @@
 Experience Level: Beginner, 
 Instrument: Electronic Keyboard, 
 Weight - 2 lb •Height - 4 in •Width - 15 in, Length - 20 in</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=HAr33w-6kp8</t>
@@ -3345,9 +3336,6 @@
 * Item Weight        - ‎1 kg 200 g.
 * Batteries Included - No
 * Batteries Required - Yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=V2QFcYEomUA</t>
@@ -3389,9 +3377,6 @@
 * Colour Screen         - No
 * Power Source         - Adapter
 * Item Weight           - ‎1 kg 400 g</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=shNyKZhNY1E</t>
@@ -3566,9 +3551,6 @@
 * Power Source  - AC, Battery
 * Battery Included - No
 * Product Dimensions	 - ‎60.4 x 21.1 x 5.7 cm; 60 Grams.</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Chysk88vXX4</t>
@@ -3742,9 +3724,6 @@
 * Tones   - 122</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=xr7uonIMLYw</t>
   </si>
   <si>
@@ -3802,9 +3781,6 @@
 * Tones      - 400</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=GH3FnRT_ZwQ</t>
   </si>
   <si>
@@ -3862,9 +3838,6 @@
 * LCD - Yes</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=IjvDjJspDZY</t>
   </si>
   <si>
@@ -3908,9 +3881,6 @@
 * Mounting Hardware  -  1 Keyboard, 1 Wire Stand, 1 Adaptor, 1 user Manual, Warranty terms and conditions
 * Wattage   - ‎7.5 Watts
 * Item Weight         - ‎4 kg 300 g.</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=DlfXsXuKXms</t>
@@ -4061,9 +4031,6 @@
 * </t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=zPQcY5s8H50</t>
   </si>
   <si>
@@ -4112,9 +4079,6 @@
 * Number of Keyboard Keys - 76
 * Standing screen display size - 3.5
 * Item Weight	- ‎9 kg 530 g</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=3qfNln2Y0B4</t>
@@ -5290,9 +5254,6 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Video Shopping</t>
-  </si>
-  <si>
     <t>Featured</t>
   </si>
   <si>
@@ -5343,9 +5304,6 @@
 Country of Origin:‎China</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=JF3ewhBVig4</t>
   </si>
   <si>
@@ -5383,9 +5341,6 @@
 Item Weight: 9 kg
 Manufacturer: Roland Corporation
 Country of Origin: ‎China</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fbKYYccdOFc</t>
@@ -5428,9 +5383,6 @@
 Country of Origin: ‎China</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=yM7CW2Ue1dQ</t>
   </si>
   <si>
@@ -5476,9 +5428,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=HsnN73EMLJk</t>
   </si>
   <si>
@@ -5518,9 +5467,6 @@
 Accessories: Owner's manual, Leaflet “USING THE UNIT SAFELY”, AC adaptor, Power cord</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=xH8T2aS6eao</t>
   </si>
   <si>
@@ -5558,9 +5504,6 @@
 Number of Keyboard Keys: 61
 Item Weight‎15 kg 
 Manufacturer: ‎Roland Corporation</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=XzgHs8V0eY0&amp;t=1s</t>
@@ -5611,9 +5554,6 @@
     <t>4,15,460</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=XzgHs8V0eY0</t>
   </si>
   <si>
@@ -5660,9 +5600,6 @@
     <t>4,60,483</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=XzgHs8V0eY0</t>
   </si>
   <si>
@@ -5714,9 +5651,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=72_v-S1iDKA</t>
   </si>
   <si>
@@ -5753,9 +5687,6 @@
 Height with sheet music stand attached: 329 mm/12.95"
 Weight: 7.5 kg/16.53 lbs
 Included items: AC adapter, sheet music stand</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=jlzuWtqkyVs</t>
@@ -5799,9 +5730,6 @@
 Country of Origin‎: China</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=YgkCA4YxmTU</t>
   </si>
   <si>
@@ -5904,9 +5832,6 @@
   </si>
   <si>
     <t>End Date</t>
-  </si>
-  <si>
-    <t>Video Shopping</t>
   </si>
   <si>
     <t>Featured</t>
@@ -8421,7 +8346,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8431,8 +8356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -44044,10 +43969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -44068,10 +43993,10 @@
     <col min="14" max="14" width="35"/>
     <col min="15" max="18" width="13.5703125"/>
     <col min="19" max="19" width="18.140625"/>
-    <col min="20" max="1024" width="13.5703125"/>
+    <col min="20" max="1023" width="13.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:33" ht="15">
       <c r="A1" s="1" t="s">
         <v>222</v>
       </c>
@@ -44139,13 +44064,11 @@
       <c r="W1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="Y1" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
@@ -44153,40 +44076,39 @@
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-    </row>
-    <row r="2" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:33" ht="16.5" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="O2" s="18">
         <v>3083983</v>
@@ -44202,10 +44124,10 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="10" t="s">
-        <v>255</v>
-      </c>
+      <c r="W2" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
@@ -44215,40 +44137,39 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-    </row>
-    <row r="3" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:33" ht="16.5" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="18">
@@ -44264,10 +44185,10 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="10" t="s">
-        <v>265</v>
-      </c>
+      <c r="W3" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
@@ -44277,33 +44198,32 @@
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-    </row>
-    <row r="4" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:33" ht="16.5" customHeight="1">
       <c r="A4" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -44325,12 +44245,11 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1"/>
-    <hyperlink ref="X3" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId1"/>
+    <hyperlink ref="W3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44338,10 +44257,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH68"/>
+  <dimension ref="A1:AG68"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -44362,86 +44281,84 @@
     <col min="14" max="14" width="39.42578125"/>
     <col min="15" max="18" width="13.5703125"/>
     <col min="19" max="19" width="18.140625"/>
-    <col min="20" max="23" width="13.5703125"/>
-    <col min="24" max="24" width="27.7109375"/>
-    <col min="25" max="1023" width="13.5703125"/>
+    <col min="20" max="22" width="13.5703125"/>
+    <col min="23" max="23" width="27.7109375"/>
+    <col min="24" max="1022" width="13.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:33" ht="15">
       <c r="A1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
@@ -44449,38 +44366,37 @@
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-    </row>
-    <row r="2" spans="1:34" ht="170.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:33" ht="170.25" customHeight="1">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="21"/>
       <c r="F2" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="22"/>
       <c r="I2" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>301</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>303</v>
       </c>
       <c r="O2" s="24">
         <v>2792.37</v>
@@ -44495,45 +44411,42 @@
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
       <c r="U2" s="26"/>
-      <c r="V2" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y2" s="26"/>
-    </row>
-    <row r="3" spans="1:34" ht="181.5">
+      <c r="V2" s="26"/>
+      <c r="W2" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="X2" s="26"/>
+    </row>
+    <row r="3" spans="1:33" ht="181.5">
       <c r="A3" s="29"/>
       <c r="B3" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K3" s="26"/>
       <c r="L3" s="32" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O3" s="24">
         <v>2792.37</v>
@@ -44548,45 +44461,42 @@
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
-      <c r="V3" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="W3" s="26"/>
-      <c r="X3" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y3" s="26"/>
-    </row>
-    <row r="4" spans="1:34" ht="264">
+      <c r="V3" s="26"/>
+      <c r="W3" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="X3" s="26"/>
+    </row>
+    <row r="4" spans="1:33" ht="264">
       <c r="A4" s="26"/>
       <c r="B4" s="34" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K4" s="26"/>
       <c r="L4" s="35" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="O4" s="37">
         <v>4853.3999999999996</v>
@@ -44601,47 +44511,44 @@
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
-      <c r="V4" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y4" s="26"/>
-    </row>
-    <row r="5" spans="1:34" ht="409.5">
+      <c r="V4" s="26"/>
+      <c r="W4" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="X4" s="26"/>
+    </row>
+    <row r="5" spans="1:33" ht="409.5">
       <c r="A5" s="38" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="19" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="19" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K5" s="26"/>
       <c r="L5" s="40" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O5" s="37">
         <v>3809.32</v>
@@ -44656,47 +44563,44 @@
       <c r="S5" s="26"/>
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
-      <c r="V5" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y5" s="26"/>
-    </row>
-    <row r="6" spans="1:34" ht="408.75">
+      <c r="V5" s="26"/>
+      <c r="W5" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="X5" s="26"/>
+    </row>
+    <row r="6" spans="1:33" ht="408.75">
       <c r="A6" s="44" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="45" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="19" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="47" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="O6" s="37">
         <v>6690.68</v>
@@ -44711,47 +44615,44 @@
       <c r="S6" s="26"/>
       <c r="T6" s="26"/>
       <c r="U6" s="26"/>
-      <c r="V6" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="W6" s="26"/>
-      <c r="X6" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y6" s="26"/>
-    </row>
-    <row r="7" spans="1:34" ht="409.5">
+      <c r="V6" s="26"/>
+      <c r="W6" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="X6" s="26"/>
+    </row>
+    <row r="7" spans="1:33" ht="409.5">
       <c r="A7" s="38" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="50" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="19" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="41" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M7" s="41" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="O7" s="37">
         <v>14712.71</v>
@@ -44766,47 +44667,44 @@
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
-      <c r="V7" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="W7" s="26"/>
-      <c r="X7" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y7" s="26"/>
-    </row>
-    <row r="8" spans="1:34" ht="399">
+      <c r="V7" s="26"/>
+      <c r="W7" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="X7" s="26"/>
+    </row>
+    <row r="8" spans="1:33" ht="399">
       <c r="A8" s="38" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="50" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="19" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="41" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M8" s="41" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="N8" s="42" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O8" s="37">
         <v>9317.7999999999993</v>
@@ -44821,47 +44719,44 @@
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
-      <c r="V8" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="W8" s="26"/>
-      <c r="X8" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y8" s="26"/>
-    </row>
-    <row r="9" spans="1:34" ht="346.5">
+      <c r="V8" s="26"/>
+      <c r="W8" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="X8" s="26"/>
+    </row>
+    <row r="9" spans="1:33" ht="346.5">
       <c r="A9" s="20" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="50" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="19" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="41" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="N9" s="42" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="O9" s="27">
         <v>11012.71</v>
@@ -44876,47 +44771,44 @@
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
-      <c r="V9" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y9" s="26"/>
-    </row>
-    <row r="10" spans="1:34" ht="327.75">
+      <c r="V9" s="26"/>
+      <c r="W9" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="X9" s="26"/>
+    </row>
+    <row r="10" spans="1:33" ht="327.75">
       <c r="A10" s="38" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="29"/>
       <c r="F10" s="50" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="19" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="41" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M10" s="41" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="N10" s="42" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="O10" s="55">
         <v>12453.39</v>
@@ -44931,43 +44823,42 @@
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
       <c r="U10" s="26"/>
-      <c r="V10" s="29"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="26"/>
       <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-    </row>
-    <row r="11" spans="1:34" ht="391.5">
+    </row>
+    <row r="11" spans="1:33" ht="391.5">
       <c r="A11" s="20" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="50" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="19" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="J11" s="54" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="57" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="M11" s="41" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="O11" s="37">
         <v>18639.830000000002</v>
@@ -44983,44 +44874,43 @@
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="58" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y11" s="26"/>
-    </row>
-    <row r="12" spans="1:34" ht="379.5">
+      <c r="W11" s="58" t="s">
+        <v>389</v>
+      </c>
+      <c r="X11" s="26"/>
+    </row>
+    <row r="12" spans="1:33" ht="379.5">
       <c r="A12" s="59" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="50" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="19" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="41" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M12" s="41" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="O12" s="37">
         <v>22877.119999999999</v>
@@ -45035,45 +44925,42 @@
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
-      <c r="V12" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="W12" s="26"/>
-      <c r="X12" s="60" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y12" s="26"/>
-    </row>
-    <row r="13" spans="1:34" ht="330">
+      <c r="V12" s="26"/>
+      <c r="W12" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="X12" s="26"/>
+    </row>
+    <row r="13" spans="1:33" ht="330">
       <c r="A13" s="26"/>
       <c r="B13" s="54" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="50" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="19" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="J13" s="61" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="41" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="M13" s="41" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="N13" s="42" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="O13" s="37">
         <v>29656.78</v>
@@ -45088,45 +44975,42 @@
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
-      <c r="V13" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="W13" s="26"/>
-      <c r="X13" s="60" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y13" s="26"/>
-    </row>
-    <row r="14" spans="1:34" ht="148.5">
+      <c r="V13" s="26"/>
+      <c r="W13" s="60" t="s">
+        <v>408</v>
+      </c>
+      <c r="X13" s="26"/>
+    </row>
+    <row r="14" spans="1:33" ht="148.5">
       <c r="A14" s="26"/>
       <c r="B14" s="62" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="64" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="63" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="K14" s="26"/>
       <c r="L14" s="65" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="N14" s="51" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="O14" s="26"/>
       <c r="P14" s="26"/>
@@ -45138,38 +45022,37 @@
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-    </row>
-    <row r="15" spans="1:34" ht="148.5">
+    </row>
+    <row r="15" spans="1:33" ht="148.5">
       <c r="A15" s="66"/>
       <c r="B15" s="67" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
       <c r="F15" s="62" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="68" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="K15" s="26"/>
       <c r="L15" s="70" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="M15" s="71" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="N15" s="51" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="O15" s="26"/>
       <c r="P15" s="26"/>
@@ -45181,40 +45064,39 @@
       <c r="V15" s="26"/>
       <c r="W15" s="26"/>
       <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-    </row>
-    <row r="16" spans="1:34" ht="156.75">
+    </row>
+    <row r="16" spans="1:33" ht="156.75">
       <c r="A16" s="38" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="62" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="68" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="47" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="M16" s="73" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="N16" s="42" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -45226,40 +45108,39 @@
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
       <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-    </row>
-    <row r="17" spans="1:25" ht="115.5">
+    </row>
+    <row r="17" spans="1:24" ht="115.5">
       <c r="A17" s="20" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="62" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="68" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="K17" s="26"/>
       <c r="L17" s="47" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="N17" s="42" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="O17" s="26"/>
       <c r="P17" s="26"/>
@@ -45271,40 +45152,39 @@
       <c r="V17" s="26"/>
       <c r="W17" s="26"/>
       <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-    </row>
-    <row r="18" spans="1:25" ht="231">
+    </row>
+    <row r="18" spans="1:24" ht="231">
       <c r="A18" s="38" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="62" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="68" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="J18" s="74" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="47" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="M18" s="71" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="N18" s="42" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
@@ -45316,40 +45196,39 @@
       <c r="V18" s="26"/>
       <c r="W18" s="26"/>
       <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-    </row>
-    <row r="19" spans="1:25" ht="148.5">
+    </row>
+    <row r="19" spans="1:24" ht="148.5">
       <c r="A19" s="20" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="62" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="68" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="41" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="N19" s="51" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -45361,40 +45240,39 @@
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-    </row>
-    <row r="20" spans="1:25" ht="155.25">
+    </row>
+    <row r="20" spans="1:24" ht="155.25">
       <c r="A20" s="38" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="62" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="68" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="J20" s="75" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="41" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="M20" s="65" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="N20" s="42" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="O20" s="26"/>
       <c r="P20" s="26"/>
@@ -45406,38 +45284,37 @@
       <c r="V20" s="26"/>
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-    </row>
-    <row r="21" spans="1:25" ht="297">
+    </row>
+    <row r="21" spans="1:24" ht="297">
       <c r="A21" s="26"/>
       <c r="B21" s="67" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="62" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="68" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="41" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="N21" s="51" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="O21" s="26"/>
       <c r="P21" s="26"/>
@@ -45449,38 +45326,37 @@
       <c r="V21" s="26"/>
       <c r="W21" s="26"/>
       <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-    </row>
-    <row r="22" spans="1:25" ht="132">
+    </row>
+    <row r="22" spans="1:24" ht="132">
       <c r="A22" s="26"/>
       <c r="B22" s="72" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="62" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="68" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="K22" s="26"/>
       <c r="L22" s="41" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="M22" s="69" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="N22" s="51" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
@@ -45492,40 +45368,39 @@
       <c r="V22" s="26"/>
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-    </row>
-    <row r="23" spans="1:25" ht="115.5">
+    </row>
+    <row r="23" spans="1:24" ht="115.5">
       <c r="A23" s="20" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="62" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="68" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="K23" s="26"/>
       <c r="L23" s="41" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="M23" s="41" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="N23" s="42" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
@@ -45537,40 +45412,39 @@
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-    </row>
-    <row r="24" spans="1:25" ht="148.5">
+    </row>
+    <row r="24" spans="1:24" ht="148.5">
       <c r="A24" s="44" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="D24" s="76"/>
       <c r="E24" s="76"/>
       <c r="F24" s="62" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G24" s="76"/>
       <c r="H24" s="76"/>
       <c r="I24" s="72" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="J24" s="77" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="K24" s="76"/>
       <c r="L24" s="78" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="M24" s="79" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="N24" s="80" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
@@ -45582,40 +45456,39 @@
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-    </row>
-    <row r="25" spans="1:25" ht="214.5">
+    </row>
+    <row r="25" spans="1:24" ht="214.5">
       <c r="A25" s="38" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
       <c r="F25" s="62" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="72" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="K25" s="26"/>
       <c r="L25" s="23" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="N25" s="51" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="O25" s="26"/>
       <c r="P25" s="26"/>
@@ -45627,38 +45500,37 @@
       <c r="V25" s="26"/>
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-    </row>
-    <row r="26" spans="1:25" ht="214.5">
+    </row>
+    <row r="26" spans="1:24" ht="214.5">
       <c r="A26" s="29"/>
       <c r="B26" s="72" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
       <c r="F26" s="62" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="72" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="K26" s="26"/>
       <c r="L26" s="31" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="N26" s="51" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
@@ -45670,38 +45542,37 @@
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-    </row>
-    <row r="27" spans="1:25" ht="297">
+    </row>
+    <row r="27" spans="1:24" ht="297">
       <c r="A27" s="26"/>
       <c r="B27" s="67" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="62" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="72" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="K27" s="26"/>
       <c r="L27" s="23" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="N27" s="51" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="O27" s="26"/>
       <c r="P27" s="26"/>
@@ -45713,38 +45584,37 @@
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-    </row>
-    <row r="28" spans="1:25" ht="132">
+    </row>
+    <row r="28" spans="1:24" ht="132">
       <c r="A28" s="26"/>
       <c r="B28" s="72" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C28" s="72" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="62" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="I28" s="72" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="K28" s="26"/>
       <c r="L28" s="81" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="N28" s="51" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="O28" s="26"/>
       <c r="P28" s="26"/>
@@ -45756,38 +45626,37 @@
       <c r="V28" s="26"/>
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-    </row>
-    <row r="29" spans="1:25" ht="99">
+    </row>
+    <row r="29" spans="1:24" ht="99">
       <c r="A29" s="26"/>
       <c r="B29" s="72" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="62" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="72" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="K29" s="26"/>
       <c r="L29" s="79" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="N29" s="51" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="O29" s="26"/>
       <c r="P29" s="26"/>
@@ -45799,38 +45668,37 @@
       <c r="V29" s="26"/>
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-    </row>
-    <row r="30" spans="1:25" ht="181.5">
+    </row>
+    <row r="30" spans="1:24" ht="181.5">
       <c r="A30" s="26"/>
       <c r="B30" s="82" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="62" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
       <c r="I30" s="82" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="J30" s="41" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="K30" s="26"/>
       <c r="L30" s="41" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="M30" s="41" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="N30" s="51" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="O30" s="26"/>
       <c r="P30" s="26"/>
@@ -45842,38 +45710,37 @@
       <c r="V30" s="26"/>
       <c r="W30" s="26"/>
       <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-    </row>
-    <row r="31" spans="1:25" ht="165">
+    </row>
+    <row r="31" spans="1:24" ht="165">
       <c r="A31" s="26"/>
       <c r="B31" s="78" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="62" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
       <c r="I31" s="83" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="J31" s="84" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="K31" s="26"/>
       <c r="L31" s="79" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="M31" s="84" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="N31" s="51" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="O31" s="26"/>
       <c r="P31" s="26"/>
@@ -45885,40 +45752,39 @@
       <c r="V31" s="26"/>
       <c r="W31" s="26"/>
       <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-    </row>
-    <row r="32" spans="1:25" ht="148.5">
+    </row>
+    <row r="32" spans="1:24" ht="148.5">
       <c r="A32" s="20" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B32" s="85" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="D32" s="76"/>
       <c r="E32" s="76"/>
       <c r="F32" s="72" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G32" s="76"/>
       <c r="H32" s="76"/>
       <c r="I32" s="72" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="J32" s="86" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="K32" s="76"/>
       <c r="L32" s="79" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="M32" s="87" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="N32" s="51" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="O32" s="37">
         <v>635.59</v>
@@ -45936,40 +45802,39 @@
       <c r="V32" s="26"/>
       <c r="W32" s="26"/>
       <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-    </row>
-    <row r="33" spans="1:25" ht="264">
+    </row>
+    <row r="33" spans="1:24" ht="264">
       <c r="A33" s="20" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="72" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
       <c r="I33" s="72" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="J33" s="90" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="K33" s="26"/>
       <c r="L33" s="41" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="M33" s="41" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="N33" s="51" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="O33" s="37">
         <v>635.59</v>
@@ -45987,40 +45852,39 @@
       <c r="V33" s="26"/>
       <c r="W33" s="26"/>
       <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-    </row>
-    <row r="34" spans="1:25" ht="214.5">
+    </row>
+    <row r="34" spans="1:24" ht="214.5">
       <c r="A34" s="38" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B34" s="92" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="C34" s="72" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
       <c r="F34" s="72" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="72" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="J34" s="93" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="K34" s="26"/>
       <c r="L34" s="41" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="M34" s="94" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="N34" s="51" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="O34" s="37">
         <v>635.59</v>
@@ -46038,38 +45902,37 @@
       <c r="V34" s="26"/>
       <c r="W34" s="26"/>
       <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-    </row>
-    <row r="35" spans="1:25" ht="231">
+    </row>
+    <row r="35" spans="1:24" ht="231">
       <c r="A35" s="26"/>
       <c r="B35" s="56" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C35" s="72" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="72" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
       <c r="I35" s="72" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="J35" s="90" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="K35" s="26"/>
       <c r="L35" s="41" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="M35" s="95" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="N35" s="96" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="O35" s="37">
         <v>720.34</v>
@@ -46087,40 +45950,39 @@
       <c r="V35" s="26"/>
       <c r="W35" s="26"/>
       <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-    </row>
-    <row r="36" spans="1:25" ht="247.5">
+    </row>
+    <row r="36" spans="1:24" ht="247.5">
       <c r="A36" s="97" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B36" s="98" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="72" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
       <c r="I36" s="72" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="J36" s="93" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="K36" s="29"/>
       <c r="L36" s="41" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="M36" s="36" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="N36" s="51" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="O36" s="37">
         <v>720.34</v>
@@ -46138,38 +46000,37 @@
       <c r="V36" s="26"/>
       <c r="W36" s="26"/>
       <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-    </row>
-    <row r="37" spans="1:25" ht="231">
+    </row>
+    <row r="37" spans="1:24" ht="231">
       <c r="A37" s="26"/>
       <c r="B37" s="56" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C37" s="72" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="72" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
       <c r="I37" s="72" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="J37" s="99" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="K37" s="26"/>
       <c r="L37" s="41" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="M37" s="36" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="N37" s="51" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="O37" s="37">
         <v>720.34</v>
@@ -46187,38 +46048,37 @@
       <c r="V37" s="26"/>
       <c r="W37" s="26"/>
       <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-    </row>
-    <row r="38" spans="1:25" ht="214.5">
+    </row>
+    <row r="38" spans="1:24" ht="214.5">
       <c r="A38" s="26"/>
       <c r="B38" s="98" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="72" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
       <c r="I38" s="72" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="J38" s="41" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="K38" s="26"/>
       <c r="L38" s="41" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="M38" s="41" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="N38" s="51" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="O38" s="37">
         <v>1650.49</v>
@@ -46236,40 +46096,39 @@
       <c r="V38" s="26"/>
       <c r="W38" s="26"/>
       <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-    </row>
-    <row r="39" spans="1:25" ht="115.5">
+    </row>
+    <row r="39" spans="1:24" ht="115.5">
       <c r="A39" s="44" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="72" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
       <c r="I39" s="72" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="J39" s="69" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="K39" s="26"/>
       <c r="L39" s="41" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="M39" s="36" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="N39" s="96" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="O39" s="37">
         <v>1650.49</v>
@@ -46287,37 +46146,36 @@
       <c r="V39" s="26"/>
       <c r="W39" s="26"/>
       <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-    </row>
-    <row r="40" spans="1:25" ht="231">
+    </row>
+    <row r="40" spans="1:24" ht="231">
       <c r="A40" s="38" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B40" s="98" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="C40" s="72" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="72" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
       <c r="I40" s="72" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="K40" s="26"/>
       <c r="L40" s="41" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="M40" s="100" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="N40" s="101"/>
       <c r="O40" s="37">
@@ -46336,38 +46194,37 @@
       <c r="V40" s="26"/>
       <c r="W40" s="26"/>
       <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-    </row>
-    <row r="41" spans="1:25" ht="214.5">
+    </row>
+    <row r="41" spans="1:24" ht="214.5">
       <c r="A41" s="26"/>
       <c r="B41" s="56" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="72" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
       <c r="I41" s="72" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="J41" s="102" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K41" s="26"/>
       <c r="L41" s="41" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="N41" s="51" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="O41" s="37">
         <v>1650.49</v>
@@ -46385,38 +46242,37 @@
       <c r="V41" s="26"/>
       <c r="W41" s="26"/>
       <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-    </row>
-    <row r="42" spans="1:25" ht="99">
+    </row>
+    <row r="42" spans="1:24" ht="99">
       <c r="A42" s="26"/>
       <c r="B42" s="98" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C42" s="72" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="72" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
       <c r="I42" s="72" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="K42" s="26"/>
       <c r="L42" s="41" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="N42" s="51" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="O42" s="37">
         <v>1650.49</v>
@@ -46434,38 +46290,37 @@
       <c r="V42" s="26"/>
       <c r="W42" s="26"/>
       <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-    </row>
-    <row r="43" spans="1:25" ht="231">
+    </row>
+    <row r="43" spans="1:24" ht="231">
       <c r="A43" s="26"/>
       <c r="B43" s="56" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="C43" s="72" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="72" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
       <c r="I43" s="72" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="J43" s="31" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="K43" s="26"/>
       <c r="L43" s="79" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="M43" s="77" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="N43" s="23" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="O43" s="37">
         <v>1650.49</v>
@@ -46483,38 +46338,37 @@
       <c r="V43" s="26"/>
       <c r="W43" s="26"/>
       <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-    </row>
-    <row r="44" spans="1:25" ht="346.5">
+    </row>
+    <row r="44" spans="1:24" ht="346.5">
       <c r="A44" s="26"/>
       <c r="B44" s="98" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="C44" s="72" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="56" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
       <c r="I44" s="67" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="J44" s="41" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="K44" s="26"/>
       <c r="L44" s="41" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="M44" s="36" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="N44" s="96" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="O44" s="37">
         <v>1398.72</v>
@@ -46532,32 +46386,31 @@
       <c r="V44" s="26"/>
       <c r="W44" s="26"/>
       <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-    </row>
-    <row r="45" spans="1:25" ht="165">
+    </row>
+    <row r="45" spans="1:24" ht="165">
       <c r="A45" s="26"/>
       <c r="B45" s="103" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="C45" s="72" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="98" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
       <c r="I45" s="72" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="J45" s="104" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="K45" s="26"/>
       <c r="L45" s="41" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="M45" s="26"/>
       <c r="N45" s="105"/>
@@ -46571,15 +46424,14 @@
       <c r="V45" s="26"/>
       <c r="W45" s="26"/>
       <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-    </row>
-    <row r="46" spans="1:25" ht="14.25" customHeight="1">
+    </row>
+    <row r="46" spans="1:24" ht="14.25" customHeight="1">
       <c r="N46" s="106"/>
     </row>
-    <row r="47" spans="1:25" ht="15">
+    <row r="47" spans="1:24" ht="15">
       <c r="N47" s="106"/>
     </row>
-    <row r="48" spans="1:25" ht="15">
+    <row r="48" spans="1:24" ht="15">
       <c r="N48" s="106"/>
     </row>
     <row r="49" spans="14:14" ht="15">
@@ -46624,17 +46476,17 @@
     <row r="68" ht="12.75"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1"/>
-    <hyperlink ref="X3" r:id="rId2"/>
-    <hyperlink ref="X4" r:id="rId3"/>
-    <hyperlink ref="X5" r:id="rId4"/>
-    <hyperlink ref="X6" r:id="rId5"/>
-    <hyperlink ref="X7" r:id="rId6"/>
-    <hyperlink ref="X8" r:id="rId7"/>
-    <hyperlink ref="X9" r:id="rId8"/>
-    <hyperlink ref="X11" r:id="rId9"/>
-    <hyperlink ref="X12" r:id="rId10"/>
-    <hyperlink ref="X13" r:id="rId11"/>
+    <hyperlink ref="W2" r:id="rId1"/>
+    <hyperlink ref="W3" r:id="rId2"/>
+    <hyperlink ref="W4" r:id="rId3"/>
+    <hyperlink ref="W5" r:id="rId4"/>
+    <hyperlink ref="W6" r:id="rId5"/>
+    <hyperlink ref="W7" r:id="rId6"/>
+    <hyperlink ref="W8" r:id="rId7"/>
+    <hyperlink ref="W9" r:id="rId8"/>
+    <hyperlink ref="W11" r:id="rId9"/>
+    <hyperlink ref="W12" r:id="rId10"/>
+    <hyperlink ref="W13" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46642,10 +46494,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH999"/>
+  <dimension ref="A1:AG999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:XFD1"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -46666,84 +46518,82 @@
     <col min="14" max="14" width="37.5703125"/>
     <col min="15" max="18" width="13.5703125"/>
     <col min="19" max="19" width="18.140625"/>
-    <col min="20" max="1024" width="13.5703125"/>
+    <col min="20" max="1023" width="13.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:33" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="X1" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="Z1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
@@ -46751,40 +46601,39 @@
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-    </row>
-    <row r="2" spans="1:34" ht="300" customHeight="1">
+    </row>
+    <row r="2" spans="1:33" ht="300" customHeight="1">
       <c r="A2" s="109" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="111" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="O2" s="112">
         <v>16780</v>
@@ -46799,13 +46648,11 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="10" t="s">
-        <v>721</v>
-      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -46815,39 +46662,38 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-    </row>
-    <row r="3" spans="1:34" ht="306">
+    </row>
+    <row r="3" spans="1:33" ht="306">
       <c r="A3" s="38" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="13" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="J3" s="114" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="O3" s="115">
         <v>18951</v>
@@ -46858,44 +46704,41 @@
       <c r="R3" s="115">
         <v>22363</v>
       </c>
-      <c r="V3" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="255">
+      <c r="W3" s="10" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="255">
       <c r="A4" s="38" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="13" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="J4" s="114" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="O4" s="115">
         <v>39577</v>
@@ -46906,46 +46749,43 @@
       <c r="R4" s="115">
         <v>46702</v>
       </c>
-      <c r="V4" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="X4" s="117" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="331.5">
+      <c r="W4" s="117" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="331.5">
       <c r="A5" s="38" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="J5" s="114" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="O5" s="115">
         <v>53777</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="Q5" s="116">
         <v>0.18</v>
@@ -46953,44 +46793,41 @@
       <c r="R5" s="115">
         <v>53777</v>
       </c>
-      <c r="V5" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="318.75">
+      <c r="W5" s="10" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="318.75">
       <c r="A6" s="38" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="O6" s="115">
         <v>70721</v>
@@ -47001,45 +46838,42 @@
       <c r="R6" s="115">
         <v>83451</v>
       </c>
-      <c r="V6" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="X6" s="117" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="331.5">
+      <c r="W6" s="117" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="331.5">
       <c r="A7" s="13" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="13" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="K7" s="118"/>
       <c r="L7" s="7" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="O7" s="13">
         <v>281083</v>
@@ -47050,207 +46884,195 @@
       <c r="R7" s="13">
         <v>331679</v>
       </c>
-      <c r="V7" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="331.5">
+      <c r="W7" s="10" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="331.5">
       <c r="A8" s="13" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="13" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="M8" s="119" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="116">
         <v>0.18</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="13" t="s">
-        <v>789</v>
-      </c>
-      <c r="W8" s="13"/>
-      <c r="X8" s="117" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="331.5">
+      <c r="V8" s="13"/>
+      <c r="W8" s="117" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="331.5">
       <c r="A9" s="13" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="113">
         <v>0.18</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="117" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="331.5">
+      <c r="V9" s="6"/>
+      <c r="W9" s="117" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="331.5">
       <c r="A10" s="13" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="13" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="M10" s="119" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="116">
         <v>0.18</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="T10" s="13" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="U10" s="13"/>
-      <c r="V10" s="13" t="s">
-        <v>817</v>
-      </c>
-      <c r="W10" s="13"/>
-      <c r="X10" s="117" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="204">
+      <c r="V10" s="13"/>
+      <c r="W10" s="117" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="204">
       <c r="A11" s="13" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>822</v>
+        <v>800</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>824</v>
+        <v>802</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="N11" s="119" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
       <c r="O11" s="115">
         <v>30552</v>
@@ -47261,44 +47083,41 @@
       <c r="R11" s="115">
         <v>40500</v>
       </c>
-      <c r="V11" s="13" t="s">
-        <v>828</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="331.5">
+      <c r="W11" s="10" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="331.5">
       <c r="A12" s="13" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="J12" s="120" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="O12" s="115">
         <v>62648</v>
@@ -47309,44 +47128,41 @@
       <c r="R12" s="115">
         <v>73925</v>
       </c>
-      <c r="V12" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="X12" s="117" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="280.5">
+      <c r="W12" s="117" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="280.5">
       <c r="A13" s="6" t="s">
-        <v>841</v>
+        <v>817</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>843</v>
+        <v>819</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>844</v>
+        <v>820</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>845</v>
+        <v>821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>846</v>
+        <v>822</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>847</v>
+        <v>823</v>
       </c>
       <c r="M13" s="119" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>849</v>
+        <v>825</v>
       </c>
       <c r="O13" s="115">
         <v>81780</v>
@@ -47357,20 +47173,20 @@
       <c r="R13" s="115">
         <v>96500</v>
       </c>
-      <c r="W13" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="12.75">
+      <c r="V13" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="12.75">
       <c r="I14" s="108"/>
     </row>
-    <row r="15" spans="1:34" ht="12.75">
+    <row r="15" spans="1:33" ht="12.75">
       <c r="I15" s="108"/>
     </row>
-    <row r="16" spans="1:34" ht="12.75">
+    <row r="16" spans="1:33" ht="12.75">
       <c r="I16" s="108"/>
     </row>
     <row r="17" spans="9:9" ht="12.75">
@@ -50324,18 +50140,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1"/>
-    <hyperlink ref="X3" r:id="rId2"/>
-    <hyperlink ref="X4" r:id="rId3"/>
-    <hyperlink ref="X5" r:id="rId4"/>
-    <hyperlink ref="X6" r:id="rId5"/>
-    <hyperlink ref="X7" r:id="rId6"/>
-    <hyperlink ref="X8" r:id="rId7"/>
-    <hyperlink ref="X9" r:id="rId8"/>
-    <hyperlink ref="X10" r:id="rId9"/>
-    <hyperlink ref="X11" r:id="rId10"/>
-    <hyperlink ref="X12" r:id="rId11"/>
-    <hyperlink ref="X13" r:id="rId12"/>
+    <hyperlink ref="W2" r:id="rId1"/>
+    <hyperlink ref="W3" r:id="rId2"/>
+    <hyperlink ref="W4" r:id="rId3"/>
+    <hyperlink ref="W5" r:id="rId4"/>
+    <hyperlink ref="W6" r:id="rId5"/>
+    <hyperlink ref="W7" r:id="rId6"/>
+    <hyperlink ref="W8" r:id="rId7"/>
+    <hyperlink ref="W9" r:id="rId8"/>
+    <hyperlink ref="W10" r:id="rId9"/>
+    <hyperlink ref="W11" r:id="rId10"/>
+    <hyperlink ref="W12" r:id="rId11"/>
+    <hyperlink ref="W13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -50343,10 +50159,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH74"/>
+  <dimension ref="A1:AG74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -50367,84 +50183,82 @@
     <col min="14" max="14" width="40.140625"/>
     <col min="15" max="18" width="13.5703125"/>
     <col min="19" max="19" width="18.140625"/>
-    <col min="20" max="1024" width="13.5703125"/>
+    <col min="20" max="1023" width="13.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:33" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>854</v>
+        <v>830</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>857</v>
+        <v>833</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>859</v>
+        <v>835</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>860</v>
+        <v>836</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>861</v>
+        <v>837</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>862</v>
+        <v>838</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>865</v>
+        <v>841</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>867</v>
+        <v>843</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>868</v>
+        <v>844</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>874</v>
-      </c>
-      <c r="Z1" s="16"/>
+        <v>848</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
@@ -50452,38 +50266,37 @@
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-    </row>
-    <row r="2" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:33" ht="16.5" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="121" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>876</v>
+        <v>851</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>877</v>
+        <v>852</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>878</v>
+        <v>853</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>879</v>
+        <v>854</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7" t="s">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>881</v>
+        <v>856</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>882</v>
+        <v>857</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -50504,45 +50317,44 @@
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-    </row>
-    <row r="3" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:33" ht="16.5" customHeight="1">
       <c r="B3" s="16"/>
       <c r="C3" s="129"/>
       <c r="D3" s="130"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:34" ht="16.5" customHeight="1">
+    <row r="4" spans="1:33" ht="16.5" customHeight="1">
       <c r="A4" s="122"/>
       <c r="B4" s="123" t="s">
-        <v>883</v>
+        <v>858</v>
       </c>
       <c r="C4" s="123" t="s">
-        <v>884</v>
+        <v>859</v>
       </c>
       <c r="D4" s="122"/>
       <c r="E4" s="122"/>
       <c r="F4" s="123" t="s">
-        <v>885</v>
+        <v>860</v>
       </c>
       <c r="G4" s="122"/>
       <c r="H4" s="122"/>
       <c r="I4" s="123" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="J4" s="123" t="s">
-        <v>887</v>
+        <v>862</v>
       </c>
       <c r="K4" s="122"/>
       <c r="L4" s="123" t="s">
-        <v>888</v>
+        <v>863</v>
       </c>
       <c r="M4" s="123" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
       <c r="N4" s="123" t="s">
-        <v>890</v>
+        <v>865</v>
       </c>
       <c r="O4" s="122"/>
       <c r="P4" s="122"/>
@@ -50563,38 +50375,37 @@
       <c r="AE4" s="122"/>
       <c r="AF4" s="122"/>
       <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-    </row>
-    <row r="6" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:33" ht="16.5" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="121" t="s">
-        <v>891</v>
+        <v>866</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="J6" s="121" t="s">
-        <v>895</v>
+        <v>870</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7" t="s">
-        <v>896</v>
+        <v>871</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>898</v>
+        <v>873</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -50615,42 +50426,41 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-    </row>
-    <row r="7" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="7" spans="1:33" ht="16.5" customHeight="1">
       <c r="B7" s="124"/>
       <c r="J7" s="125"/>
     </row>
-    <row r="8" spans="1:34" ht="16.5" customHeight="1">
+    <row r="8" spans="1:33" ht="16.5" customHeight="1">
       <c r="A8" s="122"/>
       <c r="B8" s="123" t="s">
-        <v>899</v>
+        <v>874</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="D8" s="122"/>
       <c r="E8" s="122"/>
       <c r="F8" s="7" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="G8" s="122"/>
       <c r="H8" s="122"/>
       <c r="I8" s="123" t="s">
-        <v>902</v>
+        <v>877</v>
       </c>
       <c r="J8" s="123" t="s">
-        <v>903</v>
+        <v>878</v>
       </c>
       <c r="K8" s="122"/>
       <c r="L8" s="123" t="s">
-        <v>904</v>
+        <v>879</v>
       </c>
       <c r="M8" s="123" t="s">
-        <v>905</v>
+        <v>880</v>
       </c>
       <c r="N8" s="123" t="s">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="O8" s="122"/>
       <c r="P8" s="122"/>
@@ -50671,38 +50481,37 @@
       <c r="AE8" s="122"/>
       <c r="AF8" s="122"/>
       <c r="AG8" s="122"/>
-      <c r="AH8" s="122"/>
-    </row>
-    <row r="10" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:33" ht="16.5" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="123" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>908</v>
+        <v>883</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7" t="s">
-        <v>909</v>
+        <v>884</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>910</v>
+        <v>885</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>911</v>
+        <v>886</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>913</v>
+        <v>888</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>914</v>
+        <v>889</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -50723,38 +50532,37 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-    </row>
-    <row r="12" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="12" spans="1:33" ht="16.5" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>915</v>
+        <v>890</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>916</v>
+        <v>891</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="7" t="s">
-        <v>917</v>
+        <v>892</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>918</v>
+        <v>893</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="119" t="s">
-        <v>920</v>
+        <v>895</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>921</v>
+        <v>896</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>922</v>
+        <v>897</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -50775,38 +50583,37 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-    </row>
-    <row r="14" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="14" spans="1:33" ht="16.5" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="123" t="s">
-        <v>923</v>
+        <v>898</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>924</v>
+        <v>899</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="7" t="s">
-        <v>925</v>
+        <v>900</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>926</v>
+        <v>901</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>927</v>
+        <v>902</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>928</v>
+        <v>903</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>929</v>
+        <v>904</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>930</v>
+        <v>905</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -50827,38 +50634,37 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-    </row>
-    <row r="16" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="16" spans="1:33" ht="16.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
-        <v>931</v>
+        <v>906</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>932</v>
+        <v>907</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="7" t="s">
-        <v>933</v>
+        <v>908</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>934</v>
+        <v>909</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>935</v>
+        <v>910</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>936</v>
+        <v>911</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>937</v>
+        <v>912</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>938</v>
+        <v>913</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -50879,38 +50685,37 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-    </row>
-    <row r="18" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="18" spans="1:33" ht="16.5" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="123" t="s">
-        <v>939</v>
+        <v>914</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>940</v>
+        <v>915</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="7" t="s">
-        <v>941</v>
+        <v>916</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>942</v>
+        <v>917</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>943</v>
+        <v>918</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5" t="s">
-        <v>944</v>
+        <v>919</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>945</v>
+        <v>920</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>946</v>
+        <v>921</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -50931,38 +50736,37 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-    </row>
-    <row r="20" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="20" spans="1:33" ht="16.5" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>947</v>
+        <v>922</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>948</v>
+        <v>923</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="7" t="s">
-        <v>949</v>
+        <v>924</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
-        <v>950</v>
+        <v>925</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>951</v>
+        <v>926</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5" t="s">
-        <v>952</v>
+        <v>927</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>953</v>
+        <v>928</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>954</v>
+        <v>929</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -50983,38 +50787,37 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-    </row>
-    <row r="22" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="22" spans="1:33" ht="16.5" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>955</v>
+        <v>930</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>956</v>
+        <v>931</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="7" t="s">
-        <v>957</v>
+        <v>932</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>958</v>
+        <v>933</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>959</v>
+        <v>934</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>961</v>
+        <v>936</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>962</v>
+        <v>937</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -51035,38 +50838,37 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-    </row>
-    <row r="24" spans="1:34" ht="16.5" customHeight="1">
+    </row>
+    <row r="24" spans="1:33" ht="16.5" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>963</v>
+        <v>938</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>964</v>
+        <v>939</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="7" t="s">
-        <v>965</v>
+        <v>940</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="7" t="s">
-        <v>966</v>
+        <v>941</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>967</v>
+        <v>942</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5" t="s">
-        <v>968</v>
+        <v>943</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>969</v>
+        <v>944</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>970</v>
+        <v>945</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -51087,38 +50889,37 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-    </row>
-    <row r="26" spans="1:34" ht="242.25">
+    </row>
+    <row r="26" spans="1:33" ht="242.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>971</v>
+        <v>946</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>972</v>
+        <v>947</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="7" t="s">
-        <v>973</v>
+        <v>948</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="7" t="s">
-        <v>974</v>
+        <v>949</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>976</v>
+        <v>951</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>977</v>
+        <v>952</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>978</v>
+        <v>953</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -51139,38 +50940,37 @@
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-    </row>
-    <row r="28" spans="1:34" ht="369.75">
+    </row>
+    <row r="28" spans="1:33" ht="369.75">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>979</v>
+        <v>954</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>980</v>
+        <v>955</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="7" t="s">
-        <v>981</v>
+        <v>956</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
-        <v>982</v>
+        <v>957</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>983</v>
+        <v>958</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5" t="s">
-        <v>984</v>
+        <v>959</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>985</v>
+        <v>960</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>986</v>
+        <v>961</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -51191,38 +50991,37 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-    </row>
-    <row r="30" spans="1:34" ht="409.5">
+    </row>
+    <row r="30" spans="1:33" ht="409.5">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>987</v>
+        <v>962</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="7" t="s">
-        <v>989</v>
+        <v>964</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5" t="s">
-        <v>990</v>
+        <v>965</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>991</v>
+        <v>966</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5" t="s">
-        <v>992</v>
+        <v>967</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>993</v>
+        <v>968</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>994</v>
+        <v>969</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -51243,38 +51042,37 @@
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-    </row>
-    <row r="32" spans="1:34" ht="409.5">
+    </row>
+    <row r="32" spans="1:33" ht="409.5">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>995</v>
+        <v>970</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>996</v>
+        <v>971</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="7" t="s">
-        <v>997</v>
+        <v>972</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5" t="s">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>999</v>
+        <v>974</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5" t="s">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>1001</v>
+        <v>976</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -51295,38 +51093,37 @@
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-    </row>
-    <row r="34" spans="1:34" ht="409.5">
+    </row>
+    <row r="34" spans="1:33" ht="409.5">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>1003</v>
+        <v>978</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1004</v>
+        <v>979</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="7" t="s">
-        <v>1005</v>
+        <v>980</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5" t="s">
-        <v>1006</v>
+        <v>981</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>1007</v>
+        <v>982</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5" t="s">
-        <v>1008</v>
+        <v>983</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>1009</v>
+        <v>984</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>1010</v>
+        <v>985</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -51347,38 +51144,37 @@
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-    </row>
-    <row r="36" spans="1:34" ht="409.5">
+    </row>
+    <row r="36" spans="1:33" ht="409.5">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>1011</v>
+        <v>986</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1012</v>
+        <v>987</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="7" t="s">
-        <v>1013</v>
+        <v>988</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>1015</v>
+        <v>990</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5" t="s">
-        <v>1016</v>
+        <v>991</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>1017</v>
+        <v>992</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>1018</v>
+        <v>993</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -51399,38 +51195,37 @@
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-    </row>
-    <row r="38" spans="1:34" ht="409.5">
+    </row>
+    <row r="38" spans="1:33" ht="409.5">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>1019</v>
+        <v>994</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1020</v>
+        <v>995</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="7" t="s">
-        <v>1021</v>
+        <v>996</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5" t="s">
-        <v>1022</v>
+        <v>997</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>1023</v>
+        <v>998</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5" t="s">
-        <v>1024</v>
+        <v>999</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>1026</v>
+        <v>1001</v>
       </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -51451,38 +51246,37 @@
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
       <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-    </row>
-    <row r="40" spans="1:34" ht="409.5">
+    </row>
+    <row r="40" spans="1:33" ht="409.5">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
-        <v>1027</v>
+        <v>1002</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1028</v>
+        <v>1003</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="7" t="s">
-        <v>1029</v>
+        <v>1004</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5" t="s">
-        <v>1030</v>
+        <v>1005</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>1031</v>
+        <v>1006</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5" t="s">
-        <v>1032</v>
+        <v>1007</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>1033</v>
+        <v>1008</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>1034</v>
+        <v>1009</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -51503,38 +51297,37 @@
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-    </row>
-    <row r="42" spans="1:34" ht="395.25">
+    </row>
+    <row r="42" spans="1:33" ht="395.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
-        <v>1035</v>
+        <v>1010</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1036</v>
+        <v>1011</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>1037</v>
+        <v>1012</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5" t="s">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5" t="s">
-        <v>1040</v>
+        <v>1015</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>1041</v>
+        <v>1016</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>1042</v>
+        <v>1017</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -51555,38 +51348,37 @@
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-    </row>
-    <row r="44" spans="1:34" ht="408">
+    </row>
+    <row r="44" spans="1:33" ht="408">
       <c r="A44" s="5"/>
       <c r="B44" s="5" t="s">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1044</v>
+        <v>1019</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>1045</v>
+        <v>1020</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5" t="s">
-        <v>1046</v>
+        <v>1021</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>1047</v>
+        <v>1022</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5" t="s">
-        <v>1048</v>
+        <v>1023</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>1049</v>
+        <v>1024</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
@@ -51607,38 +51399,37 @@
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-    </row>
-    <row r="46" spans="1:34" ht="382.5">
+    </row>
+    <row r="46" spans="1:33" ht="382.5">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
-        <v>1051</v>
+        <v>1026</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1052</v>
+        <v>1027</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5" t="s">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5" t="s">
-        <v>1054</v>
+        <v>1029</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>1055</v>
+        <v>1030</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5" t="s">
-        <v>1056</v>
+        <v>1031</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>1057</v>
+        <v>1032</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>1058</v>
+        <v>1033</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
@@ -51659,38 +51450,37 @@
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-    </row>
-    <row r="48" spans="1:34" ht="408">
+    </row>
+    <row r="48" spans="1:33" ht="408">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
-        <v>1059</v>
+        <v>1034</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5" t="s">
-        <v>1061</v>
+        <v>1036</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5" t="s">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>1063</v>
+        <v>1038</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5" t="s">
-        <v>1064</v>
+        <v>1039</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="N48" s="123" t="s">
-        <v>1066</v>
+        <v>1041</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -51711,41 +51501,40 @@
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-    </row>
-    <row r="49" spans="1:34">
+    </row>
+    <row r="49" spans="1:33">
       <c r="N49" s="126"/>
     </row>
-    <row r="50" spans="1:34" ht="409.5">
+    <row r="50" spans="1:33" ht="409.5">
       <c r="A50" s="5"/>
       <c r="B50" s="123" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
-        <v>1069</v>
+        <v>1044</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5" t="s">
-        <v>1070</v>
+        <v>1045</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>1071</v>
+        <v>1046</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>1073</v>
+        <v>1048</v>
       </c>
       <c r="N50" s="127" t="s">
-        <v>1074</v>
+        <v>1049</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -51766,41 +51555,40 @@
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
-    </row>
-    <row r="51" spans="1:34">
+    </row>
+    <row r="51" spans="1:33">
       <c r="N51" s="126"/>
     </row>
-    <row r="52" spans="1:34" ht="409.5">
+    <row r="52" spans="1:33" ht="409.5">
       <c r="A52" s="5"/>
       <c r="B52" s="123" t="s">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1076</v>
+        <v>1051</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>1077</v>
+        <v>1052</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>1079</v>
+        <v>1054</v>
       </c>
       <c r="K52" s="5"/>
       <c r="L52" s="5" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>1081</v>
+        <v>1056</v>
       </c>
       <c r="N52" s="127" t="s">
-        <v>1082</v>
+        <v>1057</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -51821,41 +51609,40 @@
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
-      <c r="AH52" s="5"/>
-    </row>
-    <row r="53" spans="1:34">
+    </row>
+    <row r="53" spans="1:33">
       <c r="N53" s="126"/>
     </row>
-    <row r="54" spans="1:34" ht="344.25">
+    <row r="54" spans="1:33" ht="344.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1084</v>
+        <v>1059</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5" t="s">
-        <v>1086</v>
+        <v>1061</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>1087</v>
+        <v>1062</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>1089</v>
+        <v>1064</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>1090</v>
+        <v>1065</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
@@ -51876,160 +51663,159 @@
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-    </row>
-    <row r="56" spans="1:34" ht="344.25">
+    </row>
+    <row r="56" spans="1:33" ht="344.25">
       <c r="B56" s="5" t="s">
-        <v>1091</v>
+        <v>1066</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1092</v>
+        <v>1067</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5" t="s">
-        <v>1093</v>
+        <v>1068</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5" t="s">
-        <v>1094</v>
+        <v>1069</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="5" t="s">
-        <v>1096</v>
+        <v>1071</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>1097</v>
+        <v>1072</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" ht="344.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" ht="344.25">
       <c r="B58" s="5" t="s">
-        <v>1099</v>
+        <v>1074</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
-        <v>1101</v>
+        <v>1076</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5" t="s">
-        <v>1102</v>
+        <v>1077</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>1103</v>
+        <v>1078</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5" t="s">
-        <v>1104</v>
+        <v>1079</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>1105</v>
+        <v>1080</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" ht="344.25">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" ht="344.25">
       <c r="B60" s="5" t="s">
-        <v>1107</v>
+        <v>1082</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1108</v>
+        <v>1083</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>1109</v>
+        <v>1084</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5" t="s">
-        <v>1110</v>
+        <v>1085</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>1111</v>
+        <v>1086</v>
       </c>
       <c r="K60" s="5"/>
       <c r="L60" s="5" t="s">
-        <v>1112</v>
+        <v>1087</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>1113</v>
+        <v>1088</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" ht="344.25">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" ht="344.25">
       <c r="B62" s="5" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>1116</v>
+        <v>1091</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5" t="s">
-        <v>1117</v>
+        <v>1092</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5" t="s">
-        <v>1118</v>
+        <v>1093</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>1119</v>
+        <v>1094</v>
       </c>
       <c r="K62" s="5"/>
       <c r="L62" s="5" t="s">
-        <v>1120</v>
+        <v>1095</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>1121</v>
+        <v>1096</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" ht="409.5">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" ht="409.5">
       <c r="A64" s="5"/>
       <c r="B64" s="5" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>1124</v>
+        <v>1099</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5" t="s">
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>1126</v>
+        <v>1101</v>
       </c>
       <c r="K64" s="5"/>
       <c r="L64" s="5" t="s">
-        <v>1127</v>
+        <v>1102</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>1128</v>
+        <v>1103</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>1129</v>
+        <v>1104</v>
       </c>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
@@ -52050,108 +51836,107 @@
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
       <c r="AG64" s="5"/>
-      <c r="AH64" s="5"/>
-    </row>
-    <row r="66" spans="1:34" ht="409.5">
+    </row>
+    <row r="66" spans="1:33" ht="409.5">
       <c r="B66" s="8" t="s">
-        <v>1130</v>
+        <v>1105</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>1131</v>
+        <v>1106</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>1132</v>
+        <v>1107</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>1133</v>
+        <v>1108</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5" t="s">
-        <v>1134</v>
+        <v>1109</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>1135</v>
+        <v>1110</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" ht="409.5">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" ht="409.5">
       <c r="B68" s="8" t="s">
-        <v>1137</v>
+        <v>1112</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>1138</v>
+        <v>1113</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>1139</v>
+        <v>1114</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>1140</v>
+        <v>1115</v>
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="5" t="s">
-        <v>1141</v>
+        <v>1116</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>1142</v>
+        <v>1117</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" ht="409.5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" ht="409.5">
       <c r="B70" s="8" t="s">
-        <v>1144</v>
+        <v>1119</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>1145</v>
+        <v>1120</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>1146</v>
+        <v>1121</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>1147</v>
+        <v>1122</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="5" t="s">
-        <v>1148</v>
+        <v>1123</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>1149</v>
+        <v>1124</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" ht="409.5">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" ht="409.5">
       <c r="A72" s="5"/>
       <c r="B72" s="5" t="s">
-        <v>1151</v>
+        <v>1126</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
-        <v>1152</v>
+        <v>1127</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5" t="s">
-        <v>1153</v>
+        <v>1128</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>1154</v>
+        <v>1129</v>
       </c>
       <c r="K72" s="5"/>
       <c r="L72" s="5" t="s">
-        <v>1155</v>
+        <v>1130</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>1156</v>
+        <v>1131</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>1157</v>
+        <v>1132</v>
       </c>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -52172,26 +51957,25 @@
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
       <c r="AG72" s="5"/>
-      <c r="AH72" s="5"/>
-    </row>
-    <row r="74" spans="1:34" ht="165.75">
+    </row>
+    <row r="74" spans="1:33" ht="165.75">
       <c r="B74" s="128" t="s">
-        <v>1158</v>
+        <v>1133</v>
       </c>
       <c r="C74" s="128" t="s">
-        <v>1159</v>
+        <v>1134</v>
       </c>
       <c r="F74" s="128" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="I74" s="128" t="s">
-        <v>1161</v>
+        <v>1136</v>
       </c>
       <c r="J74" s="119" t="s">
-        <v>1162</v>
+        <v>1137</v>
       </c>
       <c r="M74" s="119" t="s">
-        <v>1163</v>
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
